--- a/AyaModCards.xlsx
+++ b/AyaModCards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuyoh\Desktop\爬塔Mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuyoh\Desktop\爬塔Mod\theAya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E20EE-B218-47F8-9D00-43D3B3DF01D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FB6DC-4157-4CF1-BCC3-31DB945E8167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1240" windowWidth="20410" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
   <si>
     <t>防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +743,18 @@
   </si>
   <si>
     <t>ASCII ART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Games-icon.net 与 Emoji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,13 +868,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -871,10 +886,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,17 +1172,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:N29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79:L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1180,25 +1192,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,23 +1220,23 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1234,23 +1246,23 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1260,25 +1272,25 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="8" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,23 +1300,23 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1314,23 +1326,23 @@
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="8" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,25 +1352,25 @@
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="10">
         <v>5618239</v>
       </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1368,25 +1380,25 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="8">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="9">
         <v>1544196</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1396,25 +1408,25 @@
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="8">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9">
         <v>113998161</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,23 +1436,23 @@
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="8">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9">
         <v>2413606</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1450,23 +1462,23 @@
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="8">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="9">
         <v>859810</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1476,27 +1488,27 @@
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="9">
         <v>114461042</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,23 +1518,23 @@
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9">
         <v>221452</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1532,25 +1544,25 @@
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="8">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="9">
         <v>28517488</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,23 +1572,23 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="10">
         <v>22244767</v>
       </c>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1586,25 +1598,25 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="8">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="9">
         <v>5609037</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1614,23 +1626,23 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="8">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="9">
         <v>65143588</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1640,23 +1652,23 @@
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="8">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="9">
         <v>4187863</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1666,23 +1678,23 @@
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="8" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1692,25 +1704,25 @@
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="8" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1720,25 +1732,25 @@
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="8">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="9">
         <v>68636</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1748,25 +1760,25 @@
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="8" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1776,19 +1788,19 @@
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="8">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="9">
         <v>113762067</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
@@ -1804,32 +1816,32 @@
       <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="8">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="9">
         <v>1169442</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="9"/>
       <c r="O24" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="9" t="s">
         <v>175</v>
       </c>
       <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1839,25 +1851,25 @@
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="8">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="9">
         <v>1089262</v>
       </c>
-      <c r="N25" s="8"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1867,25 +1879,25 @@
       <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="8">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="9">
         <v>134110</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1895,29 +1907,29 @@
       <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="8">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="9">
         <v>2146324</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8" t="s">
+      <c r="N27" s="9"/>
+      <c r="O27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1927,25 +1939,25 @@
       <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="8">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="9">
         <v>4598682</v>
       </c>
-      <c r="N28" s="8"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1955,25 +1967,25 @@
       <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="8">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="9">
         <v>6380780</v>
       </c>
-      <c r="N29" s="8"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1983,25 +1995,25 @@
       <c r="E30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="8">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="9">
         <v>57434891</v>
       </c>
-      <c r="N30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2011,25 +2023,25 @@
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="8">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="9">
         <v>4012585</v>
       </c>
-      <c r="N31" s="8"/>
+      <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2039,33 +2051,33 @@
       <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="8">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="9">
         <v>493784</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8" t="s">
+      <c r="N32" s="9"/>
+      <c r="O32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8" t="s">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="R32" s="8"/>
+      <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2075,25 +2087,25 @@
       <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="8">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="9">
         <v>7100961</v>
       </c>
-      <c r="N33" s="8"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2103,25 +2115,25 @@
       <c r="E34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="8">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="9">
         <v>6602634</v>
       </c>
-      <c r="N34" s="8"/>
+      <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2131,25 +2143,25 @@
       <c r="E35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="8">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9">
         <v>12532101</v>
       </c>
-      <c r="N35" s="8"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2159,25 +2171,25 @@
       <c r="E36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="8">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="9">
         <v>84750526</v>
       </c>
-      <c r="N36" s="8"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
@@ -2187,25 +2199,25 @@
       <c r="E37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="8">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="9">
         <v>44575379</v>
       </c>
-      <c r="N37" s="8"/>
+      <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
@@ -2215,25 +2227,25 @@
       <c r="E38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="8">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="9">
         <v>15801855</v>
       </c>
-      <c r="N38" s="8"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2243,25 +2255,25 @@
       <c r="E39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="8">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="9">
         <v>540864</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2271,25 +2283,25 @@
       <c r="E40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="8">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="9">
         <v>1837210</v>
       </c>
-      <c r="N40" s="8"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
@@ -2299,25 +2311,25 @@
       <c r="E41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="8">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="9">
         <v>11103693</v>
       </c>
-      <c r="N41" s="8"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
@@ -2327,25 +2339,25 @@
       <c r="E42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="8">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="9">
         <v>1468204</v>
       </c>
-      <c r="N42" s="8"/>
+      <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2355,25 +2367,25 @@
       <c r="E43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="8">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="9">
         <v>1468204</v>
       </c>
-      <c r="N43" s="8"/>
+      <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2383,25 +2395,25 @@
       <c r="E44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="8">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="9">
         <v>70029159</v>
       </c>
-      <c r="N44" s="8"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
@@ -2411,25 +2423,25 @@
       <c r="E45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="8">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="9">
         <v>116312740</v>
       </c>
-      <c r="N45" s="8"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2439,35 +2451,35 @@
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="8" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8" t="s">
+      <c r="N46" s="9"/>
+      <c r="O46" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="14" t="s">
+      <c r="P46" s="9"/>
+      <c r="Q46" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2477,25 +2489,25 @@
       <c r="E47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="8">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="9">
         <v>110728724</v>
       </c>
-      <c r="N47" s="8"/>
+      <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2505,25 +2517,25 @@
       <c r="E48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="8">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="9">
         <v>1469261</v>
       </c>
-      <c r="N48" s="8"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2533,25 +2545,25 @@
       <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="8">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="9">
         <v>26587176</v>
       </c>
-      <c r="N49" s="8"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
@@ -2561,25 +2573,25 @@
       <c r="E50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="8">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="9">
         <v>16922746</v>
       </c>
-      <c r="N50" s="8"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2589,25 +2601,25 @@
       <c r="E51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="8">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="9">
         <v>4081732</v>
       </c>
-      <c r="N51" s="8"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
@@ -2617,25 +2629,25 @@
       <c r="E52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="8">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="9">
         <v>8517972</v>
       </c>
-      <c r="N52" s="8"/>
+      <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2645,25 +2657,25 @@
       <c r="E53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="8">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="9">
         <v>4464769</v>
       </c>
-      <c r="N53" s="8"/>
+      <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
         <v>29</v>
       </c>
@@ -2673,25 +2685,25 @@
       <c r="E54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="8">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="9">
         <v>4003329</v>
       </c>
-      <c r="N54" s="8"/>
+      <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
@@ -2701,25 +2713,25 @@
       <c r="E55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="8">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="9">
         <v>19640770</v>
       </c>
-      <c r="N55" s="8"/>
+      <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="1" t="s">
         <v>29</v>
       </c>
@@ -2729,25 +2741,25 @@
       <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="8">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="9">
         <v>1077571</v>
       </c>
-      <c r="N56" s="8"/>
+      <c r="N56" s="9"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2757,25 +2769,25 @@
       <c r="E57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="8" t="s">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="8"/>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2785,25 +2797,25 @@
       <c r="E58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="8">
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="9">
         <v>8471510</v>
       </c>
-      <c r="N58" s="8"/>
+      <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2813,25 +2825,25 @@
       <c r="E59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="8">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="9">
         <v>36036714</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2841,22 +2853,22 @@
       <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="8">
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="9">
         <v>1741290</v>
       </c>
-      <c r="N60" s="8"/>
+      <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="10"/>
@@ -2869,22 +2881,22 @@
       <c r="E61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="8">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="9">
         <v>2666438</v>
       </c>
-      <c r="N61" s="8"/>
+      <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="10"/>
@@ -2897,28 +2909,28 @@
       <c r="E62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="8" t="s">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2928,22 +2940,22 @@
       <c r="E63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="8">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="9">
         <v>965769</v>
       </c>
-      <c r="N63" s="8"/>
+      <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B64" s="10"/>
@@ -2956,25 +2968,25 @@
       <c r="E64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="8">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="9">
         <v>4286483</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2984,25 +2996,25 @@
       <c r="E65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="8">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="9">
         <v>8393029</v>
       </c>
-      <c r="N65" s="8"/>
+      <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="13"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
@@ -3012,19 +3024,19 @@
       <c r="E66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="8">
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="9">
         <v>1076808</v>
       </c>
-      <c r="N66" s="8"/>
+      <c r="N66" s="9"/>
       <c r="O66" s="7" t="s">
         <v>166</v>
       </c>
@@ -3033,7 +3045,7 @@
       <c r="A67" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3043,22 +3055,22 @@
       <c r="E67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="8">
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="9">
         <v>1920304</v>
       </c>
-      <c r="N67" s="8"/>
+      <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="10"/>
@@ -3071,22 +3083,22 @@
       <c r="E68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="8">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="9">
         <v>1640209</v>
       </c>
-      <c r="N68" s="8"/>
+      <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B69" s="10"/>
@@ -3099,22 +3111,22 @@
       <c r="E69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="8">
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="9">
         <v>1718875</v>
       </c>
-      <c r="N69" s="8"/>
+      <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="10"/>
@@ -3127,22 +3139,22 @@
       <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="8">
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="9">
         <v>1138706</v>
       </c>
-      <c r="N70" s="8"/>
+      <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B71" s="10"/>
@@ -3155,25 +3167,25 @@
       <c r="E71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="8">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="9">
         <v>4678880</v>
       </c>
-      <c r="N71" s="8"/>
+      <c r="N71" s="9"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="3" t="s">
         <v>15</v>
       </c>
@@ -3183,25 +3195,25 @@
       <c r="E72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="8">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="9">
         <v>91486688</v>
       </c>
-      <c r="N72" s="8"/>
+      <c r="N72" s="9"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="1" t="s">
         <v>29</v>
       </c>
@@ -3211,25 +3223,25 @@
       <c r="E73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="8">
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="9">
         <v>478181</v>
       </c>
-      <c r="N73" s="8"/>
+      <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="1" t="s">
         <v>111</v>
       </c>
@@ -3239,29 +3251,29 @@
       <c r="E74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="8">
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="9">
         <v>12433248</v>
       </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8" t="s">
+      <c r="N74" s="9"/>
+      <c r="O74" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P74" s="8"/>
+      <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="1" t="s">
         <v>112</v>
       </c>
@@ -3271,25 +3283,25 @@
       <c r="E75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="8">
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="9">
         <v>7681395</v>
       </c>
-      <c r="N75" s="8"/>
+      <c r="N75" s="9"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="3" t="s">
         <v>113</v>
       </c>
@@ -3299,415 +3311,421 @@
       <c r="E76" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="8">
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="9">
         <v>614832</v>
       </c>
-      <c r="N76" s="8"/>
+      <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="9"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="F79" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.4">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
@@ -3717,2043 +3735,2043 @@
       <c r="E101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N101" s="8"/>
+      <c r="N101" s="9"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="8">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="9">
         <v>108608201</v>
       </c>
-      <c r="N102" s="8"/>
+      <c r="N102" s="9"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="8" t="s">
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N103" s="8"/>
+      <c r="N103" s="9"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="1"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="1"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="1"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="1"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="1"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="1"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="1"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="1"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="1"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
-      <c r="L149" s="11"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="1"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="11"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="1"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="1"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="1"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="1"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="11"/>
-      <c r="L162" s="11"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="1"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="1"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="1"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="8"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="1"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="1"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="8"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="1"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="1"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="1"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="1"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="1"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="1"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="1"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="8"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="1"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
+      <c r="M185" s="9"/>
+      <c r="N185" s="9"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="9"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="9"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="8"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="1"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="9"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="8"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="9"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
+      <c r="M192" s="9"/>
+      <c r="N192" s="9"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="1"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="M193" s="8"/>
-      <c r="N193" s="8"/>
+      <c r="M193" s="9"/>
+      <c r="N193" s="9"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="9"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="8"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="9"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="1"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="1"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="1"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="8"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="9"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="8"/>
+      <c r="M199" s="9"/>
+      <c r="N199" s="9"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="1"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="8"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="1"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="9"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="1"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="M202" s="8"/>
-      <c r="N202" s="8"/>
+      <c r="M202" s="9"/>
+      <c r="N202" s="9"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
+      <c r="M203" s="9"/>
+      <c r="N203" s="9"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="1"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="1"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="1"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="1"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="1"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+      <c r="A209" s="9"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="1"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="1"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="1"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="1"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="1"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="1"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="1"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="1"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="1"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="1"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="1"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
       <c r="C222" s="1"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
       <c r="C223" s="1"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="1"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="1"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
       <c r="C227" s="1"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
+      <c r="A231" s="9"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="9"/>
       <c r="C232" s="1"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="9"/>
       <c r="C233" s="1"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="9"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
+      <c r="A235" s="9"/>
+      <c r="B235" s="9"/>
       <c r="C235" s="1"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="1"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
+      <c r="A237" s="9"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="1"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
       <c r="C238" s="1"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="1"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="9"/>
       <c r="C240" s="1"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
+      <c r="A241" s="9"/>
+      <c r="B241" s="9"/>
       <c r="C241" s="1"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="1"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
+      <c r="A243" s="9"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
+      <c r="A244" s="9"/>
+      <c r="B244" s="9"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
+      <c r="A245" s="9"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="1"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
+      <c r="A246" s="9"/>
+      <c r="B246" s="9"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
+      <c r="A247" s="9"/>
+      <c r="B247" s="9"/>
       <c r="C247" s="1"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
+      <c r="A248" s="9"/>
+      <c r="B248" s="9"/>
       <c r="C248" s="1"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
+      <c r="A249" s="9"/>
+      <c r="B249" s="9"/>
       <c r="C249" s="1"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
+      <c r="A250" s="9"/>
+      <c r="B250" s="9"/>
       <c r="C250" s="1"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="9"/>
+      <c r="B251" s="9"/>
       <c r="C251" s="1"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
+      <c r="A252" s="9"/>
+      <c r="B252" s="9"/>
       <c r="C252" s="1"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="9"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="1"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="9"/>
+      <c r="B254" s="9"/>
       <c r="C254" s="1"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="9"/>
       <c r="C255" s="1"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="9"/>
+      <c r="B256" s="9"/>
       <c r="C256" s="1"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="1"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
+      <c r="A258" s="9"/>
+      <c r="B258" s="9"/>
       <c r="C258" s="1"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
+      <c r="A259" s="9"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="1"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
+      <c r="A260" s="9"/>
+      <c r="B260" s="9"/>
       <c r="C260" s="1"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
+      <c r="A261" s="9"/>
+      <c r="B261" s="9"/>
       <c r="C261" s="1"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
+      <c r="A262" s="9"/>
+      <c r="B262" s="9"/>
       <c r="C262" s="1"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
+      <c r="A263" s="9"/>
+      <c r="B263" s="9"/>
       <c r="C263" s="1"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
+      <c r="A264" s="9"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="1"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
+      <c r="A265" s="9"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="1"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
+      <c r="A266" s="9"/>
+      <c r="B266" s="9"/>
       <c r="C266" s="1"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
+      <c r="A267" s="9"/>
+      <c r="B267" s="9"/>
       <c r="C267" s="1"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
+      <c r="A268" s="9"/>
+      <c r="B268" s="9"/>
       <c r="C268" s="1"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
+      <c r="A269" s="9"/>
+      <c r="B269" s="9"/>
       <c r="C269" s="1"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
+      <c r="A270" s="9"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="1"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
+      <c r="A271" s="9"/>
+      <c r="B271" s="9"/>
       <c r="C271" s="1"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
+      <c r="A272" s="9"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
+      <c r="A273" s="9"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="1"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
+      <c r="A274" s="9"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
+      <c r="A275" s="9"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
+      <c r="A276" s="9"/>
+      <c r="B276" s="9"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
+      <c r="A277" s="9"/>
+      <c r="B277" s="9"/>
       <c r="C277" s="1"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
+      <c r="A278" s="9"/>
+      <c r="B278" s="9"/>
       <c r="C278" s="1"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
+      <c r="A279" s="9"/>
+      <c r="B279" s="9"/>
       <c r="C279" s="1"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
+      <c r="A280" s="9"/>
+      <c r="B280" s="9"/>
       <c r="C280" s="1"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
+      <c r="A281" s="9"/>
+      <c r="B281" s="9"/>
       <c r="C281" s="1"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
+      <c r="A282" s="9"/>
+      <c r="B282" s="9"/>
       <c r="C282" s="1"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
+      <c r="A283" s="9"/>
+      <c r="B283" s="9"/>
       <c r="C283" s="1"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
+      <c r="A284" s="9"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="1"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
+      <c r="A285" s="9"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="1"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
+      <c r="A286" s="9"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="1"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
+      <c r="A287" s="9"/>
+      <c r="B287" s="9"/>
       <c r="C287" s="1"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
+      <c r="A288" s="9"/>
+      <c r="B288" s="9"/>
       <c r="C288" s="1"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
+      <c r="A289" s="9"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="1"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
+      <c r="A290" s="9"/>
+      <c r="B290" s="9"/>
       <c r="C290" s="1"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
+      <c r="A291" s="9"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="1"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
       <c r="C292" s="1"/>
       <c r="E292" s="2"/>
     </row>
@@ -7141,6 +7159,655 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="673">
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="A100:N100"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F166:L166"/>
+    <mergeCell ref="F167:L167"/>
+    <mergeCell ref="F168:L168"/>
+    <mergeCell ref="F154:L154"/>
+    <mergeCell ref="F155:L155"/>
+    <mergeCell ref="F156:L156"/>
+    <mergeCell ref="F157:L157"/>
+    <mergeCell ref="F158:L158"/>
+    <mergeCell ref="F159:L159"/>
+    <mergeCell ref="F148:L148"/>
+    <mergeCell ref="F149:L149"/>
+    <mergeCell ref="F150:L150"/>
+    <mergeCell ref="F151:L151"/>
+    <mergeCell ref="F152:L152"/>
+    <mergeCell ref="F153:L153"/>
+    <mergeCell ref="F142:L142"/>
+    <mergeCell ref="F143:L143"/>
+    <mergeCell ref="F144:L144"/>
+    <mergeCell ref="F169:L169"/>
+    <mergeCell ref="F170:L170"/>
+    <mergeCell ref="F171:L171"/>
+    <mergeCell ref="F160:L160"/>
+    <mergeCell ref="F161:L161"/>
+    <mergeCell ref="F162:L162"/>
+    <mergeCell ref="F163:L163"/>
+    <mergeCell ref="F164:L164"/>
+    <mergeCell ref="F165:L165"/>
+    <mergeCell ref="F145:L145"/>
+    <mergeCell ref="F146:L146"/>
+    <mergeCell ref="F147:L147"/>
+    <mergeCell ref="F136:L136"/>
+    <mergeCell ref="F137:L137"/>
+    <mergeCell ref="F138:L138"/>
+    <mergeCell ref="F139:L139"/>
+    <mergeCell ref="F140:L140"/>
+    <mergeCell ref="F141:L141"/>
+    <mergeCell ref="F130:L130"/>
+    <mergeCell ref="F131:L131"/>
+    <mergeCell ref="F132:L132"/>
+    <mergeCell ref="F133:L133"/>
+    <mergeCell ref="F134:L134"/>
+    <mergeCell ref="F135:L135"/>
+    <mergeCell ref="F124:L124"/>
+    <mergeCell ref="F125:L125"/>
+    <mergeCell ref="F126:L126"/>
+    <mergeCell ref="F127:L127"/>
+    <mergeCell ref="F128:L128"/>
+    <mergeCell ref="F129:L129"/>
+    <mergeCell ref="F118:L118"/>
+    <mergeCell ref="F119:L119"/>
+    <mergeCell ref="F120:L120"/>
+    <mergeCell ref="F121:L121"/>
+    <mergeCell ref="F122:L122"/>
+    <mergeCell ref="F123:L123"/>
+    <mergeCell ref="F112:L112"/>
+    <mergeCell ref="F113:L113"/>
+    <mergeCell ref="F114:L114"/>
+    <mergeCell ref="F115:L115"/>
+    <mergeCell ref="F116:L116"/>
+    <mergeCell ref="F117:L117"/>
+    <mergeCell ref="F106:L106"/>
+    <mergeCell ref="F107:L107"/>
+    <mergeCell ref="F108:L108"/>
+    <mergeCell ref="F109:L109"/>
+    <mergeCell ref="F110:L110"/>
+    <mergeCell ref="F111:L111"/>
+    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="F102:L102"/>
+    <mergeCell ref="F103:L103"/>
+    <mergeCell ref="F104:L104"/>
+    <mergeCell ref="F105:L105"/>
+    <mergeCell ref="F94:L94"/>
+    <mergeCell ref="F95:L95"/>
+    <mergeCell ref="F96:L96"/>
+    <mergeCell ref="F97:L97"/>
+    <mergeCell ref="F98:L98"/>
+    <mergeCell ref="F99:L99"/>
+    <mergeCell ref="F88:L88"/>
+    <mergeCell ref="F89:L89"/>
+    <mergeCell ref="F90:L90"/>
+    <mergeCell ref="F91:L91"/>
+    <mergeCell ref="F92:L92"/>
+    <mergeCell ref="F93:L93"/>
+    <mergeCell ref="F82:L82"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="F84:L84"/>
+    <mergeCell ref="F85:L85"/>
+    <mergeCell ref="F86:L86"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="F76:L76"/>
+    <mergeCell ref="F77:L77"/>
+    <mergeCell ref="F78:L78"/>
+    <mergeCell ref="F79:L79"/>
+    <mergeCell ref="F80:L80"/>
+    <mergeCell ref="F81:L81"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="F71:L71"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="F75:L75"/>
+    <mergeCell ref="F64:L64"/>
+    <mergeCell ref="F65:L65"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="F67:L67"/>
+    <mergeCell ref="F68:L68"/>
+    <mergeCell ref="F69:L69"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F60:L60"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F52:L52"/>
+    <mergeCell ref="F53:L53"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="Q46:T46"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="O32:P32"/>
@@ -7165,655 +7832,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F51:L51"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="F58:L58"/>
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="F60:L60"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="F63:L63"/>
-    <mergeCell ref="F52:L52"/>
-    <mergeCell ref="F53:L53"/>
-    <mergeCell ref="F54:L54"/>
-    <mergeCell ref="F55:L55"/>
-    <mergeCell ref="F56:L56"/>
-    <mergeCell ref="F57:L57"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="F71:L71"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="F73:L73"/>
-    <mergeCell ref="F74:L74"/>
-    <mergeCell ref="F75:L75"/>
-    <mergeCell ref="F64:L64"/>
-    <mergeCell ref="F65:L65"/>
-    <mergeCell ref="F66:L66"/>
-    <mergeCell ref="F67:L67"/>
-    <mergeCell ref="F68:L68"/>
-    <mergeCell ref="F69:L69"/>
-    <mergeCell ref="F82:L82"/>
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="F84:L84"/>
-    <mergeCell ref="F85:L85"/>
-    <mergeCell ref="F86:L86"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="F76:L76"/>
-    <mergeCell ref="F77:L77"/>
-    <mergeCell ref="F78:L78"/>
-    <mergeCell ref="F79:L79"/>
-    <mergeCell ref="F80:L80"/>
-    <mergeCell ref="F81:L81"/>
-    <mergeCell ref="F94:L94"/>
-    <mergeCell ref="F95:L95"/>
-    <mergeCell ref="F96:L96"/>
-    <mergeCell ref="F97:L97"/>
-    <mergeCell ref="F98:L98"/>
-    <mergeCell ref="F99:L99"/>
-    <mergeCell ref="F88:L88"/>
-    <mergeCell ref="F89:L89"/>
-    <mergeCell ref="F90:L90"/>
-    <mergeCell ref="F91:L91"/>
-    <mergeCell ref="F92:L92"/>
-    <mergeCell ref="F93:L93"/>
-    <mergeCell ref="F106:L106"/>
-    <mergeCell ref="F107:L107"/>
-    <mergeCell ref="F108:L108"/>
-    <mergeCell ref="F109:L109"/>
-    <mergeCell ref="F110:L110"/>
-    <mergeCell ref="F111:L111"/>
-    <mergeCell ref="F101:L101"/>
-    <mergeCell ref="F102:L102"/>
-    <mergeCell ref="F103:L103"/>
-    <mergeCell ref="F104:L104"/>
-    <mergeCell ref="F105:L105"/>
-    <mergeCell ref="F118:L118"/>
-    <mergeCell ref="F119:L119"/>
-    <mergeCell ref="F120:L120"/>
-    <mergeCell ref="F121:L121"/>
-    <mergeCell ref="F122:L122"/>
-    <mergeCell ref="F123:L123"/>
-    <mergeCell ref="F112:L112"/>
-    <mergeCell ref="F113:L113"/>
-    <mergeCell ref="F114:L114"/>
-    <mergeCell ref="F115:L115"/>
-    <mergeCell ref="F116:L116"/>
-    <mergeCell ref="F117:L117"/>
-    <mergeCell ref="F130:L130"/>
-    <mergeCell ref="F131:L131"/>
-    <mergeCell ref="F132:L132"/>
-    <mergeCell ref="F133:L133"/>
-    <mergeCell ref="F134:L134"/>
-    <mergeCell ref="F135:L135"/>
-    <mergeCell ref="F124:L124"/>
-    <mergeCell ref="F125:L125"/>
-    <mergeCell ref="F126:L126"/>
-    <mergeCell ref="F127:L127"/>
-    <mergeCell ref="F128:L128"/>
-    <mergeCell ref="F129:L129"/>
-    <mergeCell ref="F145:L145"/>
-    <mergeCell ref="F146:L146"/>
-    <mergeCell ref="F147:L147"/>
-    <mergeCell ref="F136:L136"/>
-    <mergeCell ref="F137:L137"/>
-    <mergeCell ref="F138:L138"/>
-    <mergeCell ref="F139:L139"/>
-    <mergeCell ref="F140:L140"/>
-    <mergeCell ref="F141:L141"/>
-    <mergeCell ref="F169:L169"/>
-    <mergeCell ref="F170:L170"/>
-    <mergeCell ref="F171:L171"/>
-    <mergeCell ref="F160:L160"/>
-    <mergeCell ref="F161:L161"/>
-    <mergeCell ref="F162:L162"/>
-    <mergeCell ref="F163:L163"/>
-    <mergeCell ref="F164:L164"/>
-    <mergeCell ref="F165:L165"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F166:L166"/>
-    <mergeCell ref="F167:L167"/>
-    <mergeCell ref="F168:L168"/>
-    <mergeCell ref="F154:L154"/>
-    <mergeCell ref="F155:L155"/>
-    <mergeCell ref="F156:L156"/>
-    <mergeCell ref="F157:L157"/>
-    <mergeCell ref="F158:L158"/>
-    <mergeCell ref="F159:L159"/>
-    <mergeCell ref="F148:L148"/>
-    <mergeCell ref="F149:L149"/>
-    <mergeCell ref="F150:L150"/>
-    <mergeCell ref="F151:L151"/>
-    <mergeCell ref="F152:L152"/>
-    <mergeCell ref="F153:L153"/>
-    <mergeCell ref="F142:L142"/>
-    <mergeCell ref="F143:L143"/>
-    <mergeCell ref="F144:L144"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="A100:N100"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M168:N168"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
